--- a/Parsing_characteristis_and_photo/for_parsing_try_02.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try_02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B073AC69-786A-4345-8D36-7349B2A1D0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF167E-E68F-41A8-A142-FBF0183BE22E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2133,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E44" sqref="E44:F58"/>
     </sheetView>
   </sheetViews>
